--- a/jpcore-r4/release/release_branch_test/ValueSet-jp-procedure-followup-vs.xlsx
+++ b/jpcore-r4/release/release_branch_test/ValueSet-jp-procedure-followup-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-15T06:57:07+00:00</t>
+    <t>2022-06-15T07:51:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/release_branch_test/ValueSet-jp-procedure-followup-vs.xlsx
+++ b/jpcore-r4/release/release_branch_test/ValueSet-jp-procedure-followup-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-15T07:51:10+00:00</t>
+    <t>2022-06-15T08:19:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/release_branch_test/ValueSet-jp-procedure-followup-vs.xlsx
+++ b/jpcore-r4/release/release_branch_test/ValueSet-jp-procedure-followup-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-15T08:19:40+00:00</t>
+    <t>2022-06-15T08:32:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/release_branch_test/ValueSet-jp-procedure-followup-vs.xlsx
+++ b/jpcore-r4/release/release_branch_test/ValueSet-jp-procedure-followup-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-15T08:32:20+00:00</t>
+    <t>2022-06-15T09:20:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/release_branch_test/ValueSet-jp-procedure-followup-vs.xlsx
+++ b/jpcore-r4/release/release_branch_test/ValueSet-jp-procedure-followup-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-15T09:20:27+00:00</t>
+    <t>2022-06-15T09:41:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
